--- a/Basededatos/DGA.xlsx
+++ b/Basededatos/DGA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luzdelsurlds-my.sharepoint.com/personal/roquispec_luzdelsur_com_pe/Documents/Documentos/Estudios de Ingreso/ProyectoRyD/Basededatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="6_{54BBD3C1-3D1C-4623-B613-3399FD9D3835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8CC22A8-A031-46C0-96C4-C78D3FD30172}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="6_{54BBD3C1-3D1C-4623-B613-3399FD9D3835}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{B586D640-0CE1-489C-9D49-523FF335FA13}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{E2EBD7A0-A66A-4E96-BE75-F7030DECB494}"/>
   </bookViews>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -82,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +93,6 @@
       <color theme="0"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -176,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -191,7 +175,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1D9A9C-9A6B-49EB-A470-291754C1FB24}">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,31 +1073,31 @@
       <c r="C18" s="7">
         <v>41621</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="2">
         <v>191</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="2">
         <v>36</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="2">
         <v>11</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="2">
         <v>222</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="2">
         <v>71</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="2">
         <v>97</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="2">
         <v>3369</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="2">
         <v>1009</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="2">
         <v>17002</v>
       </c>
     </row>

--- a/Basededatos/DGA.xlsx
+++ b/Basededatos/DGA.xlsx
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1D9A9C-9A6B-49EB-A470-291754C1FB24}">
   <dimension ref="B2:L2681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2681"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
